--- a/Distributed Generation/Growth of Power.xlsx
+++ b/Distributed Generation/Growth of Power.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orion\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/tyda3998_colorado_edu/Documents/School/ECEN 5407 - Renewable &amp; Power Grid/_Homework/Project 2/GitHub/sunset_cliffs_power/Distributed Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A5684E-D9D3-4E13-AD6D-BD8D0A4CF4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{49A5684E-D9D3-4E13-AD6D-BD8D0A4CF4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{797D6600-06CC-48A1-95E1-03AF573F8001}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Shining Cities 2022" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>SD County Homes</t>
   </si>
@@ -83,6 +84,27 @@
   <si>
     <t>&lt;-This Number!</t>
   </si>
+  <si>
+    <t>https://environmentamerica.org/resources/shining-cities-2022-2/</t>
+  </si>
+  <si>
+    <t>https://publicinterestnetwork.org/wp-content/uploads/2022/08/Shining_Cities-2022-1.pdf</t>
+  </si>
+  <si>
+    <t>City DC Watts (MW)</t>
+  </si>
+  <si>
+    <t>DC to AC Ratio</t>
+  </si>
+  <si>
+    <t>City AC Watts (MW)</t>
+  </si>
+  <si>
+    <t>County AC Watts (MW)</t>
+  </si>
+  <si>
+    <t>Total City Capacity</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +156,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -194,11 +240,30 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1817,10 +1882,10 @@
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +1907,6 @@
       <c r="G4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1869,7 +1933,7 @@
         <f t="shared" ref="G5:G17" si="1">F5*C5</f>
         <v>9.0744845360824762</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -1896,7 +1960,7 @@
         <f t="shared" si="1"/>
         <v>19.434970059880239</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -1923,7 +1987,7 @@
         <f t="shared" si="1"/>
         <v>31.428272340425533</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -1950,7 +2014,7 @@
         <f t="shared" si="1"/>
         <v>57.256460626587639</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -1977,7 +2041,7 @@
         <f t="shared" si="1"/>
         <v>65.236212121212134</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2004,7 +2068,7 @@
         <f t="shared" si="1"/>
         <v>40.835108695652174</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2031,7 +2095,7 @@
         <f t="shared" si="1"/>
         <v>53.681825726141085</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -2058,7 +2122,7 @@
         <f t="shared" si="1"/>
         <v>67.624843492586507</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -2085,7 +2149,7 @@
         <f t="shared" si="1"/>
         <v>61.465230263157892</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -2115,7 +2179,7 @@
         <f t="shared" si="1"/>
         <v>105.92947743204111</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -2142,7 +2206,7 @@
         <f t="shared" si="1"/>
         <v>129.65337674477692</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -2169,7 +2233,7 @@
         <f t="shared" si="1"/>
         <v>158.69046566483394</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -2196,7 +2260,7 @@
         <f t="shared" si="1"/>
         <v>194.23068280352206</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -2219,7 +2283,7 @@
         <f t="shared" si="0"/>
         <v>0.4569120472972375</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <f t="shared" ref="G18" si="3">F18*C18</f>
         <v>237.73046467708863</v>
       </c>
@@ -2229,7 +2293,6 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -2239,4 +2302,260 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F218BC43-23A6-4719-A595-E64CEEA738B9}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15" style="13" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="13" customWidth="1"/>
+    <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" style="13" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="17">
+        <v>149</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="D8" s="13">
+        <f>B8*C8</f>
+        <v>193.70000000000002</v>
+      </c>
+      <c r="E8" s="13">
+        <v>279.57</v>
+      </c>
+      <c r="F8" s="14">
+        <f>D8/E8</f>
+        <v>0.69284973351933332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="17">
+        <v>189</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" ref="D9:D15" si="0">B9*C9</f>
+        <v>245.70000000000002</v>
+      </c>
+      <c r="E9" s="13">
+        <v>426.14</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" ref="F9:F15" si="1">D9/E9</f>
+        <v>0.57657107992678469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B10" s="17">
+        <v>303</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1.3</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="0"/>
+        <v>393.90000000000003</v>
+      </c>
+      <c r="E10" s="13">
+        <v>603.87</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>0.65229271200755135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="17">
+        <v>287.2</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>344.64</v>
+      </c>
+      <c r="E11" s="13">
+        <v>732.41</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>0.47055610928305186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="17">
+        <v>351.4</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="0"/>
+        <v>421.67999999999995</v>
+      </c>
+      <c r="E12" s="13">
+        <v>902.18</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.46740118379924178</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="17">
+        <v>420.38</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
+        <v>504.45599999999996</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1082.43</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.46604029821789855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="18">
+        <f>AVERAGE(B13,B15)</f>
+        <v>444.19</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
+        <v>533.02800000000002</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1259.0899999999999</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="1"/>
+        <v>0.42334384356956217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="17">
+        <v>468</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
+        <v>561.6</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1449.49</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>0.38744661915570305</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Distributed Generation/Growth of Power.xlsx
+++ b/Distributed Generation/Growth of Power.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/tyda3998_colorado_edu/Documents/School/ECEN 5407 - Renewable &amp; Power Grid/_Homework/Project 2/GitHub/sunset_cliffs_power/Distributed Generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{49A5684E-D9D3-4E13-AD6D-BD8D0A4CF4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{797D6600-06CC-48A1-95E1-03AF573F8001}"/>
+  <xr:revisionPtr revIDLastSave="289" documentId="13_ncr:1_{49A5684E-D9D3-4E13-AD6D-BD8D0A4CF4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{889C5227-FC7A-4ABE-B2BA-2075D3220176}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4260" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>SD County Homes</t>
   </si>
@@ -105,13 +105,23 @@
   <si>
     <t>Total City Capacity</t>
   </si>
+  <si>
+    <t>% Residential</t>
+  </si>
+  <si>
+    <t>County AC Watts Residential (MW)</t>
+  </si>
+  <si>
+    <t>Predicted Residential Solar in City</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,7 +189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -256,13 +266,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1606,6 +1628,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1872,7 +1898,7 @@
   <dimension ref="A4:H20"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F218BC43-23A6-4719-A595-E64CEEA738B9}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2320,9 +2346,9 @@
     <col min="4" max="4" width="20.109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="20.21875" style="13" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15" style="13" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="29.88671875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="29.109375" style="13" customWidth="1"/>
     <col min="10" max="10" width="16.109375" style="13" customWidth="1"/>
     <col min="11" max="11" width="21.109375" style="13" customWidth="1"/>
     <col min="12" max="12" width="18.77734375" style="13" customWidth="1"/>
@@ -2340,11 +2366,11 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -2365,12 +2391,21 @@
       <c r="F7" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="G7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>2014</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>149</v>
       </c>
       <c r="C8" s="13">
@@ -2387,34 +2422,54 @@
         <f>D8/E8</f>
         <v>0.69284973351933332</v>
       </c>
+      <c r="G8" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="19">
+        <v>185.47</v>
+      </c>
+      <c r="I8" s="19">
+        <f>H8*F8</f>
+        <v>128.50284007583076</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>2015</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>189</v>
       </c>
       <c r="C9" s="13">
         <v>1.3</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" ref="D9:D15" si="0">B9*C9</f>
+        <f t="shared" ref="D9:D19" si="0">B9*C9</f>
         <v>245.70000000000002</v>
       </c>
       <c r="E9" s="13">
         <v>426.14</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" ref="F9:F15" si="1">D9/E9</f>
+        <f t="shared" ref="F9:F19" si="1">D9/E9</f>
         <v>0.57657107992678469</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H9" s="19">
+        <v>315.01</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" ref="I9:I18" si="2">H9*F9</f>
+        <v>181.62565588773643</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>2016</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>303</v>
       </c>
       <c r="C10" s="13">
@@ -2431,19 +2486,29 @@
         <f t="shared" si="1"/>
         <v>0.65229271200755135</v>
       </c>
+      <c r="G10" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H10" s="19">
+        <v>462.07</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="2"/>
+        <v>301.40489343732924</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>2017</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>287.2</v>
       </c>
       <c r="C11" s="13">
         <v>1.2</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
+        <f>B11*C11</f>
         <v>344.64</v>
       </c>
       <c r="E11" s="13">
@@ -2453,12 +2518,22 @@
         <f t="shared" si="1"/>
         <v>0.47055610928305186</v>
       </c>
+      <c r="G11" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H11" s="19">
+        <v>553.70000000000005</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="2"/>
+        <v>260.54691771002581</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2018</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>351.4</v>
       </c>
       <c r="C12" s="13">
@@ -2475,9 +2550,16 @@
         <f t="shared" si="1"/>
         <v>0.46740118379924178</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+      <c r="G12" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H12" s="20">
+        <v>673.49</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="2"/>
+        <v>314.79002327695133</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -2486,7 +2568,7 @@
       <c r="A13" s="13">
         <v>2019</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>420.38</v>
       </c>
       <c r="C13" s="13">
@@ -2503,35 +2585,54 @@
         <f t="shared" si="1"/>
         <v>0.46604029821789855</v>
       </c>
+      <c r="G13" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H13" s="19">
+        <v>823.86</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="2"/>
+        <v>383.95196008979792</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>2020</v>
       </c>
-      <c r="B14" s="18">
-        <f>AVERAGE(B13,B15)</f>
-        <v>444.19</v>
+      <c r="B14" s="17">
+        <v>444</v>
       </c>
       <c r="C14" s="13">
         <v>1.2</v>
       </c>
       <c r="D14" s="13">
         <f t="shared" si="0"/>
-        <v>533.02800000000002</v>
+        <v>532.79999999999995</v>
       </c>
       <c r="E14" s="13">
         <v>1259.0899999999999</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="1"/>
-        <v>0.42334384356956217</v>
+        <v>0.42316276040632517</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H14" s="19">
+        <v>960.25</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="2"/>
+        <v>406.34204068017374</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>2021</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>468</v>
       </c>
       <c r="C15" s="13">
@@ -2548,9 +2649,141 @@
         <f t="shared" si="1"/>
         <v>0.38744661915570305</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D18" s="14"/>
+      <c r="G15" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1107.05</v>
+      </c>
+      <c r="I15" s="19">
+        <f t="shared" si="2"/>
+        <v>428.92277973632105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D16" s="19">
+        <f>D15+50</f>
+        <v>611.6</v>
+      </c>
+      <c r="E16" s="19" cm="1">
+        <f t="array" ref="E16:E19">GROWTH(E8:E15,A8:A15,A16:A19)</f>
+        <v>2047.4923561392998</v>
+      </c>
+      <c r="F16" s="14">
+        <f>D16/E16</f>
+        <v>0.29870685385767087</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H16" s="19">
+        <f>H15+150</f>
+        <v>1257.05</v>
+      </c>
+      <c r="I16" s="19">
+        <f t="shared" si="2"/>
+        <v>375.48945064178514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D17" s="19">
+        <f>D16+50</f>
+        <v>661.6</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2564.0043242132533</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="1"/>
+        <v>0.25803388619596318</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H17" s="19">
+        <f>H16+150</f>
+        <v>1407.05</v>
+      </c>
+      <c r="I17" s="19">
+        <f t="shared" si="2"/>
+        <v>363.06657957202998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D18" s="19">
+        <f>D17+50</f>
+        <v>711.6</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3210.8145140917054</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>0.22162600700754018</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H18" s="19">
+        <f>H17+150</f>
+        <v>1557.05</v>
+      </c>
+      <c r="I18" s="19">
+        <f t="shared" si="2"/>
+        <v>345.0827742110904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="19">
+        <f>D18+50</f>
+        <v>761.6</v>
+      </c>
+      <c r="E19" s="19">
+        <v>4020.7926899909962</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="1"/>
+        <v>0.18941538614906939</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H19" s="19">
+        <f>H18+150</f>
+        <v>1707.05</v>
+      </c>
+      <c r="I19" s="22">
+        <f>H19*F19</f>
+        <v>323.34153492576888</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
